--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD42B60-34EB-4485-B42A-2C10275586E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0E89EA-3C17-4767-8D2A-990D86A3B9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -37,22 +37,25 @@
     <t>res</t>
   </si>
   <si>
-    <t>pavanoltraining@gmail.com</t>
-  </si>
-  <si>
     <t>test123</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>pavan@gmail.com</t>
-  </si>
-  <si>
     <t>Khajask503@gmail.com</t>
   </si>
   <si>
     <t>White@456</t>
+  </si>
+  <si>
+    <t>pavaqn@gmail.com</t>
+  </si>
+  <si>
+    <t>pavoltraining@gmail.com</t>
+  </si>
+  <si>
+    <t>pa4an@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -485,10 +488,10 @@
     </row>
     <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -496,10 +499,10 @@
     </row>
     <row r="3" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -507,10 +510,10 @@
     </row>
     <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -518,10 +521,10 @@
     </row>
     <row r="5" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
